--- a/data/trans_media/IQ23-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ23-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 11,92</t>
+          <t>11,21; 11,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 12,24</t>
+          <t>11,47; 12,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 11,56</t>
+          <t>10,96; 11,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 10,84</t>
+          <t>10,16; 10,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 11,97</t>
+          <t>11,27; 11,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 11,96</t>
+          <t>11,31; 12,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,09; 11,68</t>
+          <t>11,07; 11,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 10,63</t>
+          <t>9,96; 10,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 11,84</t>
+          <t>11,36; 11,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 11,98</t>
+          <t>11,49; 11,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,09; 11,55</t>
+          <t>11,08; 11,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 10,63</t>
+          <t>10,16; 10,62</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 9,92</t>
+          <t>9,71; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,17 +874,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 9,58</t>
+          <t>9,35; 9,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 9,5</t>
+          <t>9,26; 9,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 9,83</t>
+          <t>9,62; 9,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 9,54</t>
+          <t>9,28; 9,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 9,84</t>
+          <t>9,7; 9,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 9,81</t>
+          <t>9,64; 9,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 9,61</t>
+          <t>9,46; 9,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 9,49</t>
+          <t>9,3; 9,48</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 9,13</t>
+          <t>8,92; 9,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,22 +1014,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 9,22</t>
+          <t>9,0; 9,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 9,03</t>
+          <t>8,81; 9,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 9,37</t>
+          <t>9,11; 9,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 9,36</t>
+          <t>9,11; 9,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 9,2</t>
+          <t>8,98; 9,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>9,04; 9,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 9,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>9,04; 9,2</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,16; 9,36</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,04; 9,2</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 9,08</t>
+          <t>8,92; 9,08</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 8,86</t>
+          <t>8,64; 8,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 8,86</t>
+          <t>8,6; 8,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 8,87</t>
+          <t>8,64; 8,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 8,88</t>
+          <t>8,67; 8,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 8,75</t>
+          <t>8,62; 8,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 9,74</t>
+          <t>9,55; 9,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,7; 9,92</t>
+          <t>9,69; 9,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 9,61</t>
+          <t>9,42; 9,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 9,15</t>
+          <t>9,0; 9,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,7; 9,92</t>
+          <t>9,69; 9,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 9,7</t>
+          <t>9,51; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 9,21</t>
+          <t>9,07; 9,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 9,88</t>
+          <t>9,73; 9,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
